--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuent\Desktop\Horario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -448,10 +448,17 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="35">
   <si>
     <t>Semana del 13 al 19</t>
   </si>
@@ -101,7 +101,34 @@
     <t>estudiar/tareas vivamos la universidad</t>
   </si>
   <si>
-    <t>clase infórmatica</t>
+    <t>clase física mecánica</t>
+  </si>
+  <si>
+    <t>clase de infórmatica</t>
+  </si>
+  <si>
+    <t>estudiar/prácticas/tareas informática</t>
+  </si>
+  <si>
+    <t>estudiar/prácticas/tareas</t>
+  </si>
+  <si>
+    <t>clase de laboratorio de informática</t>
+  </si>
+  <si>
+    <t>estudiar calculo integral</t>
+  </si>
+  <si>
+    <t>estudiar fisica mecanica</t>
+  </si>
+  <si>
+    <t>semana del 20 al 26</t>
+  </si>
+  <si>
+    <t>semana del 27 al 5 de marzo</t>
+  </si>
+  <si>
+    <t>semana del 6 hasta el 10 de marzo</t>
   </si>
 </sst>
 </file>
@@ -117,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,13 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,8 +490,10 @@
     <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -499,9 +535,9 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -511,9 +547,9 @@
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -527,11 +563,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -545,11 +583,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -562,10 +602,14 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -580,10 +624,14 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -594,10 +642,12 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -606,10 +656,10 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -622,10 +672,16 @@
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -640,10 +696,18 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -658,10 +722,16 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -676,10 +746,14 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -694,10 +768,16 @@
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -710,10 +790,14 @@
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -724,10 +808,12 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -738,10 +824,10 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -754,10 +840,12 @@
         <v>9</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -768,10 +856,12 @@
         <v>9</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -780,10 +870,1095 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>2</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="36">
   <si>
     <t>Semana del 13 al 19</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>semana del 6 hasta el 10 de marzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adelantar practicas de laboratorio informatica </t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,11 +190,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -199,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,13 +496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
@@ -615,7 +630,7 @@
       <c r="A8" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -637,10 +652,12 @@
       <c r="A9" s="2">
         <v>0.5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
@@ -653,8 +670,12 @@
       <c r="A10" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -665,8 +686,10 @@
       <c r="A11" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -687,7 +710,7 @@
       <c r="A12" s="2">
         <v>0.625</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -719,7 +742,7 @@
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -738,7 +761,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -760,7 +783,7 @@
         <v>0.75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -783,7 +806,9 @@
       <c r="A16" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
@@ -803,7 +828,9 @@
       <c r="A17" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -819,7 +846,7 @@
       <c r="A18" s="2">
         <v>0.875</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
@@ -833,11 +860,11 @@
       <c r="A19" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
@@ -853,7 +880,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">

--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="38">
   <si>
     <t>Semana del 13 al 19</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">adelantar practicas de laboratorio informatica </t>
+  </si>
+  <si>
+    <t>adelantar practicas laboratorio</t>
+  </si>
+  <si>
+    <t>clase-taller física mecánica</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +667,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -678,7 +684,9 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -696,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
@@ -720,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
@@ -813,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
@@ -833,7 +841,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="6" t="s">
@@ -850,7 +858,9 @@
         <v>13</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -867,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="4"/>
@@ -883,7 +893,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="4"/>

--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="40">
   <si>
     <t>Semana del 13 al 19</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>clase-taller física mecánica</t>
+  </si>
+  <si>
+    <t>Adelantar prácticas laboratorio informatica</t>
+  </si>
+  <si>
+    <t>Estudiar algebra líneal</t>
   </si>
 </sst>
 </file>
@@ -502,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,9 +740,9 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -760,9 +766,11 @@
         <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -780,11 +788,15 @@
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1053,7 +1065,7 @@
       <c r="A31" s="2">
         <v>0.5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="4"/>
@@ -1069,7 +1081,9 @@
       <c r="A32" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1083,7 +1097,7 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1103,11 +1117,11 @@
       <c r="A34" s="2">
         <v>0.625</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -1130,7 +1144,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>19</v>
@@ -1155,8 +1169,8 @@
       <c r="A36" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
+      <c r="B36" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>19</v>
@@ -1177,8 +1191,8 @@
       <c r="A37" s="2">
         <v>0.75</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
+      <c r="B37" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
@@ -1201,7 +1215,9 @@
       <c r="A38" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,8 +1253,8 @@
       <c r="A40" s="2">
         <v>0.875</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1252,7 +1268,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
@@ -1269,7 +1285,9 @@
       <c r="A42" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>9</v>
       </c>

--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="41">
   <si>
     <t>Semana del 13 al 19</t>
   </si>
@@ -144,16 +144,25 @@
   </si>
   <si>
     <t>Estudiar algebra líneal</t>
+  </si>
+  <si>
+    <t>estudiar álgebra lineal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -226,6 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1081,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="4"/>
@@ -1103,9 +1113,9 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -1127,13 +1137,13 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>31</v>
@@ -1159,9 +1169,9 @@
         <v>27</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1182,7 +1192,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="4"/>
@@ -1206,8 +1216,8 @@
       <c r="F37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>31</v>
+      <c r="G37" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H37" s="4"/>
     </row>
@@ -1239,8 +1249,8 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>12</v>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="6" t="s">
@@ -1257,8 +1267,12 @@
         <v>39</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1273,9 +1287,11 @@
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -1291,8 +1307,10 @@
       <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="4"/>
@@ -1430,8 +1448,8 @@
       <c r="A52" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
+      <c r="B52" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>16</v>
@@ -1452,8 +1470,8 @@
       <c r="A53" s="2">
         <v>0.5</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
+      <c r="B53" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1468,7 +1486,9 @@
       <c r="A54" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1481,7 +1501,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -1503,9 +1523,9 @@
         <v>0.625</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -1529,7 +1549,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
@@ -1637,7 +1657,7 @@
         <v>0.875</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1651,7 +1671,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>9</v>
@@ -2017,5 +2037,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
   <si>
     <t>Semana del 13 al 19</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>estudiar álgebra lineal</t>
+  </si>
+  <si>
+    <t>parcial física mecánica</t>
+  </si>
+  <si>
+    <t>parcial cálculo integral</t>
   </si>
 </sst>
 </file>
@@ -518,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,11 +1401,11 @@
       <c r="D49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
+      <c r="F49" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1415,10 +1421,10 @@
       <c r="D50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="4"/>
@@ -1436,10 +1442,10 @@
         <v>22</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -1458,10 +1464,10 @@
         <v>22</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -1476,7 +1482,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G53" s="4"/>
@@ -1504,11 +1510,11 @@
       <c r="C55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>27</v>
@@ -1528,14 +1534,14 @@
       <c r="C56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>17</v>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -1555,10 +1561,10 @@
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>27</v>
@@ -1584,7 +1590,7 @@
         <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
@@ -1625,7 +1631,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>20</v>
@@ -1643,7 +1649,7 @@
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="6" t="s">
@@ -1660,8 +1666,12 @@
         <v>40</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="D62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -1673,12 +1683,14 @@
       <c r="B63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -1689,12 +1701,12 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>

--- a/horario informatica.xlsx
+++ b/horario informatica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="44">
   <si>
     <t>Semana del 13 al 19</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>parcial cálculo integral</t>
+  </si>
+  <si>
+    <t>estudiar algebrea lineal</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,8 +1830,8 @@
       <c r="A75" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>9</v>
+      <c r="B75" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>16</v>
@@ -1847,13 +1850,15 @@
       <c r="A76" s="2">
         <v>0.5</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>9</v>
+      <c r="B76" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="6" t="s">
+      <c r="E76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1861,10 +1866,14 @@
       <c r="A77" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -1872,16 +1881,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="D78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1890,19 +1899,19 @@
         <v>0.625</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -1910,16 +1919,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>27</v>
@@ -1929,32 +1938,34 @@
       <c r="A81" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>12</v>
+      <c r="B81" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="4"/>
+      <c r="F81" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>0.75</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>12</v>
+      <c r="B82" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>23</v>
+      <c r="D82" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>20</v>
@@ -1967,12 +1978,14 @@
       <c r="A83" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B83" s="4"/>
+      <c r="B83" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>24</v>
+      <c r="D83" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>20</v>
@@ -2011,15 +2024,15 @@
       <c r="A86" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F86" s="4"/>
     </row>
@@ -2029,11 +2042,11 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F87" s="4"/>
     </row>
@@ -2044,7 +2057,9 @@
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F88" s="4"/>
     </row>
   </sheetData>
